--- a/server/src/uploads/6.xlsx
+++ b/server/src/uploads/6.xlsx
@@ -1019,8 +1019,8 @@
       <c r="B4" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="C4" t="s" s="4">
-        <v>144</v>
+      <c r="C4" s="4">
+        <v>100</v>
       </c>
       <c r="D4" s="4">
         <v>2008</v>
